--- a/medicine/Psychotrope/Jean_de_Bourbon_(Naundorff)/Jean_de_Bourbon_(Naundorff).xlsx
+++ b/medicine/Psychotrope/Jean_de_Bourbon_(Naundorff)/Jean_de_Bourbon_(Naundorff).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auguste-Jean Charles Emmanuel de Bourbon, né 6 novembre 1872 à Maastricht et mort 1er juillet 1914 à Paris, est un prétendant naundorffiste au trône de France, sous le nom de Jean III, en tant que petit-fils de Karl-Wilhelm Naundorff, le plus célèbre de ceux qui, au XIXe siècle, prétendirent être le dauphin Louis XVII, fils du roi Louis XVI et de Marie-Antoinette d'Autriche, officiellement mort à la tour du Temple[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auguste-Jean Charles Emmanuel de Bourbon, né 6 novembre 1872 à Maastricht et mort 1er juillet 1914 à Paris, est un prétendant naundorffiste au trône de France, sous le nom de Jean III, en tant que petit-fils de Karl-Wilhelm Naundorff, le plus célèbre de ceux qui, au XIXe siècle, prétendirent être le dauphin Louis XVII, fils du roi Louis XVI et de Marie-Antoinette d'Autriche, officiellement mort à la tour du Temple.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est né le 6 novembre 1872 à Maastricht, de Charles-Edmond de Bourbon (Naundorff) (1833-1883) dit duc d'Anjou, et de Christina Schoenlau (1842-1928).
 Il se marie à Lunel, civilement le 7 février 1898 et religieusement le 8 février 1898, à Fanny Marie Magdelaine Cuillé (1876-1917), fille de Marcel Cuillé et de Claire Gabaudan, et avec qui il a un fils unique : Henri de Bourbon (Henri V) (1899-1960).
@@ -543,7 +557,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1899, à la mort de son oncle Louis-Charles de Bourbon (Charles XI) (1831-1899), étant alors âgé de 27 ans, il se déclare « chef de famille », et devient prince de Bourbon, dauphin titulaire de France et roi-lieutenant du Sacré-Cœur, et prend, en tant que « roi de droit », le nom de Jean III.
 Il est associé de la maison Gabaudan, commerce de vin à Lunel (Hérault). En 1903, il devient directeur d'une société de sondage et de forage.
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,7 +619,9 @@
           <t>Ascendance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ascendance de Jean de Bourbon
